--- a/Assessment 2 v1/Results Waypoint 1.xlsx
+++ b/Assessment 2 v1/Results Waypoint 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A4D5A5E-5046-48AD-B6FB-F308C2D473AE}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7650637-93D4-420B-9168-9A7582213524}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" activeTab="1" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5BCB56-9515-413D-9030-3E612E14AC95}">
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -502,8 +501,101 @@
       </c>
       <c r="AR1" s="1"/>
     </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="B2">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="B3">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0.106</v>
+      </c>
+      <c r="B4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="B6">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="B7">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="B8">
+        <v>9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="B9">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0.315</v>
+      </c>
+      <c r="B10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="B11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
@@ -513,19 +605,6 @@
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -535,74 +614,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572EAA43-E536-4779-B86D-DA8181C395D4}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+    <sheetView zoomScale="67" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Assessment 2 v1/Results Waypoint 1.xlsx
+++ b/Assessment 2 v1/Results Waypoint 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7650637-93D4-420B-9168-9A7582213524}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{824527D5-8078-4A5A-8065-B0984E409591}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
   </bookViews>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5BCB56-9515-413D-9030-3E612E14AC95}">
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -506,7 +506,8 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="B2">
-        <v>-1.0999999999999999E-2</v>
+        <f>-0.011*$A$13</f>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.4">
@@ -514,7 +515,8 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="B3">
-        <v>-9.8000000000000004E-2</v>
+        <f>-0.098*A13</f>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.4">
@@ -581,21 +583,13 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
@@ -605,6 +599,19 @@
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assessment 2 v1/Results Waypoint 1.xlsx
+++ b/Assessment 2 v1/Results Waypoint 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{824527D5-8078-4A5A-8065-B0984E409591}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E18871-9076-4ECB-B606-FCDCE35FE2B3}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
   </bookViews>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5BCB56-9515-413D-9030-3E612E14AC95}">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="211" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -524,7 +524,7 @@
         <v>0.106</v>
       </c>
       <c r="B4">
-        <v>0.08</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.4">
@@ -532,7 +532,7 @@
         <v>0.125</v>
       </c>
       <c r="B5">
-        <v>-5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.4">
@@ -540,7 +540,7 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="B6">
-        <v>1.5E-3</v>
+        <v>-1.5E-3</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.4">
@@ -548,7 +548,7 @@
         <v>0.20250000000000001</v>
       </c>
       <c r="B7">
-        <v>-8.6999999999999994E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.4">
@@ -556,7 +556,7 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="B8">
-        <v>9.2499999999999999E-2</v>
+        <v>-9.2499999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
@@ -564,7 +564,7 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="B9">
-        <v>-9.8000000000000004E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.4">
@@ -572,7 +572,7 @@
         <v>0.315</v>
       </c>
       <c r="B10">
-        <v>7.0000000000000007E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.4">
@@ -580,7 +580,7 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="B11">
-        <v>4.2999999999999997E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.4">
@@ -590,6 +590,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
@@ -599,19 +612,6 @@
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assessment 2 v1/Results Waypoint 1.xlsx
+++ b/Assessment 2 v1/Results Waypoint 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E18871-9076-4ECB-B606-FCDCE35FE2B3}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA15348-7F10-4F4C-B97D-E23E566DA736}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
   </bookViews>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5BCB56-9515-413D-9030-3E612E14AC95}">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="211" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -548,7 +548,7 @@
         <v>0.20250000000000001</v>
       </c>
       <c r="B7">
-        <v>8.6999999999999994E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.4">
@@ -590,19 +590,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
@@ -612,6 +599,19 @@
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assessment 2 v1/Results Waypoint 1.xlsx
+++ b/Assessment 2 v1/Results Waypoint 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/Robotics-Systems-A2/Assessment 2 v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{654CC6AE-4EE3-4D8D-9465-50F2A35D6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA15348-7F10-4F4C-B97D-E23E566DA736}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{09E40718-218E-46AC-A58C-1D6A900CEA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0665AA3A-ABAC-44F1-92EF-9378BE4A7E6B}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="126">
   <si>
     <t>Waypoint</t>
   </si>
@@ -49,19 +49,391 @@
   </si>
   <si>
     <t>Random Speed x</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 1 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 2 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 3 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 1 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 2 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>Square Wave Speed 3 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 1 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 2 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 3 A0.1 W0.4</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 1 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 2 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>Sin Wave Speed 3 A0.1 W0.2</t>
+  </si>
+  <si>
+    <t>0.09,0.10</t>
+  </si>
+  <si>
+    <t>0.18,0.01</t>
+  </si>
+  <si>
+    <t>0.24,-0.10</t>
+  </si>
+  <si>
+    <t>0.31,-0.07</t>
+  </si>
+  <si>
+    <t>0.39,-0.04</t>
+  </si>
+  <si>
+    <t>0.40,-0.04</t>
+  </si>
+  <si>
+    <t>0.00,0.00</t>
+  </si>
+  <si>
+    <t>0.08,0.11</t>
+  </si>
+  <si>
+    <t>0.20,0.09</t>
+  </si>
+  <si>
+    <t>0.17,0.01</t>
+  </si>
+  <si>
+    <t>0.21,-0.14</t>
+  </si>
+  <si>
+    <t>0.25,-0.09</t>
+  </si>
+  <si>
+    <t>0.40,-0.03</t>
+  </si>
+  <si>
+    <t>0.39,-0.03</t>
+  </si>
+  <si>
+    <t>0.09,0.11</t>
+  </si>
+  <si>
+    <t>0.24,-0.09</t>
+  </si>
+  <si>
+    <t>0.21,0.09</t>
+  </si>
+  <si>
+    <t>0.25,-0.08</t>
+  </si>
+  <si>
+    <t>0.32,-0.07</t>
+  </si>
+  <si>
+    <t>0.18,0.00</t>
+  </si>
+  <si>
+    <t>0.43,-0.02</t>
+  </si>
+  <si>
+    <t>0.43,0.09</t>
+  </si>
+  <si>
+    <t>0.23,-0.08</t>
+  </si>
+  <si>
+    <t>0.39,-0.05</t>
+  </si>
+  <si>
+    <t>0.08,0.10</t>
+  </si>
+  <si>
+    <t>0.20,0.07</t>
+  </si>
+  <si>
+    <t>0.17,0.00</t>
+  </si>
+  <si>
+    <t>0.23,-0.09</t>
+  </si>
+  <si>
+    <t>-0.01,0.04</t>
+  </si>
+  <si>
+    <t>0.23,-0.07</t>
+  </si>
+  <si>
+    <t>0.38,-0.03</t>
+  </si>
+  <si>
+    <t>0.30,-0.07</t>
+  </si>
+  <si>
+    <t>0.38,-0.04</t>
+  </si>
+  <si>
+    <t>0.17,0.02</t>
+  </si>
+  <si>
+    <t>0.31,-0.13</t>
+  </si>
+  <si>
+    <t>0.18,-0.00</t>
+  </si>
+  <si>
+    <t>0.22,-0.09</t>
+  </si>
+  <si>
+    <t>0.40,-0.13</t>
+  </si>
+  <si>
+    <t>0.12,-0.07</t>
+  </si>
+  <si>
+    <t>0.19,-0.00</t>
+  </si>
+  <si>
+    <t>0.29,0.11</t>
+  </si>
+  <si>
+    <t>0.32,-0.06</t>
+  </si>
+  <si>
+    <t>0.12,0.01</t>
+  </si>
+  <si>
+    <t>0.06,0.02</t>
+  </si>
+  <si>
+    <t>0.23,-0.10</t>
+  </si>
+  <si>
+    <t>0.17,-0.00</t>
+  </si>
+  <si>
+    <t>0.21,0.07</t>
+  </si>
+  <si>
+    <t>0.41,-0.04</t>
+  </si>
+  <si>
+    <t>0.07,0.02</t>
+  </si>
+  <si>
+    <t>0.13,0.02</t>
+  </si>
+  <si>
+    <t>-0.00,0.04</t>
+  </si>
+  <si>
+    <t>0.21,0.08</t>
+  </si>
+  <si>
+    <t>0.33,-0.05</t>
+  </si>
+  <si>
+    <t>0.18,-0.01</t>
+  </si>
+  <si>
+    <t>0.11,-0.07</t>
+  </si>
+  <si>
+    <t>0.08,0.02</t>
+  </si>
+  <si>
+    <t>0.31,-0.14</t>
+  </si>
+  <si>
+    <t>0.30,-0.14</t>
+  </si>
+  <si>
+    <t>0.41,-0.03</t>
+  </si>
+  <si>
+    <t>0.26,-0.08</t>
+  </si>
+  <si>
+    <t>0.33,-0.14</t>
+  </si>
+  <si>
+    <t>0.20,0.08</t>
+  </si>
+  <si>
+    <t>0.28,0.11</t>
+  </si>
+  <si>
+    <t>0.32,-0.05</t>
+  </si>
+  <si>
+    <t>0.12,-0.06</t>
+  </si>
+  <si>
+    <t>0.32,-0.04</t>
+  </si>
+  <si>
+    <t>0.29,-0.13</t>
+  </si>
+  <si>
+    <t>0.41,-0.13</t>
+  </si>
+  <si>
+    <t>0.40,-0.02</t>
+  </si>
+  <si>
+    <t>0.29,0.10</t>
+  </si>
+  <si>
+    <t>0.40,-0.05</t>
+  </si>
+  <si>
+    <t>0.43,0.06</t>
+  </si>
+  <si>
+    <t>0.33,-0.06</t>
+  </si>
+  <si>
+    <t>0.12,-0.08</t>
+  </si>
+  <si>
+    <t>0.43,0.04</t>
+  </si>
+  <si>
+    <t>0.19,0.00</t>
+  </si>
+  <si>
+    <t>0.43,0.10</t>
+  </si>
+  <si>
+    <t>0.43,0.12</t>
+  </si>
+  <si>
+    <t>0.13,0.01</t>
+  </si>
+  <si>
+    <t>0.43,0.11</t>
+  </si>
+  <si>
+    <t>0.40,0.14</t>
+  </si>
+  <si>
+    <t>0.42,0.14</t>
+  </si>
+  <si>
+    <t>0.44,0.12</t>
+  </si>
+  <si>
+    <t>0.32,-0.14</t>
+  </si>
+  <si>
+    <t>0.10,-0.08</t>
+  </si>
+  <si>
+    <t>0.17,-0.01</t>
+  </si>
+  <si>
+    <t>0.06,0.01</t>
+  </si>
+  <si>
+    <t>0.43,0.02</t>
+  </si>
+  <si>
+    <t>0.31,-0.06</t>
+  </si>
+  <si>
+    <t>0.10,-0.07</t>
+  </si>
+  <si>
+    <t>0.19,0.08</t>
+  </si>
+  <si>
+    <t>0.27,0.11</t>
+  </si>
+  <si>
+    <t>0.31,-0.05</t>
+  </si>
+  <si>
+    <t>0.37,-0.13</t>
+  </si>
+  <si>
+    <t>0.07,0.03</t>
+  </si>
+  <si>
+    <t>0.11,-0.06</t>
+  </si>
+  <si>
+    <t>0.31,-0.04</t>
+  </si>
+  <si>
+    <t>0.16,0.00</t>
+  </si>
+  <si>
+    <t>-0.00,0.05</t>
+  </si>
+  <si>
+    <t>0.08,0.09</t>
+  </si>
+  <si>
+    <t>0.24,-0.08</t>
+  </si>
+  <si>
+    <t>0.33,-0.07</t>
+  </si>
+  <si>
+    <t>0.32,-0.08</t>
+  </si>
+  <si>
+    <t>0.40,-0.06</t>
+  </si>
+  <si>
+    <t>0.31,-0.08</t>
+  </si>
+  <si>
+    <t>0.39,-0.07</t>
+  </si>
+  <si>
+    <t>0.19,0.01</t>
+  </si>
+  <si>
+    <t>0.41,-0.05</t>
+  </si>
+  <si>
+    <t>-0.00,0.09</t>
+  </si>
+  <si>
+    <t>0.07,0.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,8 +456,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,215 +776,5309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5BCB56-9515-413D-9030-3E612E14AC95}">
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:EO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="DJ1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="DW17" sqref="DW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:145" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
-      <c r="AI1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
-      <c r="AM1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="BC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="B2">
-        <f>-0.011*$A$13</f>
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>44</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>44</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>30</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="B3">
-        <f>-0.098*A13</f>
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>102</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>124</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.106</v>
       </c>
       <c r="B4">
         <v>-0.08</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>65</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>64</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>42</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>60</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>43</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>60</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>30</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>16</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>94</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>30</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>65</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>65</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>65</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.125</v>
       </c>
       <c r="B5">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>65</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>60</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>29</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>20</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>20</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>20</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>29</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>52</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>118</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>116</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>118</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>118</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>70</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>102</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>70</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>102</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>54</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>54</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>70</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.17249999999999999</v>
       </c>
       <c r="B6">
         <v>-1.5E-3</v>
       </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>25</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>70</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>28</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>28</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>117</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>119</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>86</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>123</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>62</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>65</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>94</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>62</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>94</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>67</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>62</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>62</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.20250000000000001</v>
       </c>
       <c r="B7">
         <v>7.8E-2</v>
       </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>121</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>86</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>85</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>70</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>70</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>85</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>56</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>85</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.23100000000000001</v>
       </c>
       <c r="B8">
         <v>-9.2499999999999999E-2</v>
       </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>61</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>88</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>62</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>62</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>88</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>62</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>88</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>88</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>34</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.28399999999999997</v>
       </c>
       <c r="B9">
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>21</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>56</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>21</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>56</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>21</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>21</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>86</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.315</v>
       </c>
       <c r="B10">
         <v>-7.0000000000000007E-2</v>
       </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>88</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>88</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>88</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.38700000000000001</v>
       </c>
       <c r="B11">
         <v>-4.2999999999999997E-2</v>
       </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>73</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>21</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>21</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>21</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>-1</v>
+    <row r="12" spans="1:145" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:145" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" t="s">
+        <v>22</v>
+      </c>
+      <c r="X13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>29</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:145" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>28</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:145" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:145" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:127" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>27802</v>
+      </c>
+      <c r="D17">
+        <v>26786</v>
+      </c>
+      <c r="E17">
+        <v>24720</v>
+      </c>
+      <c r="F17">
+        <v>24132</v>
+      </c>
+      <c r="G17">
+        <v>24313</v>
+      </c>
+      <c r="H17">
+        <v>24910</v>
+      </c>
+      <c r="I17">
+        <v>23787</v>
+      </c>
+      <c r="J17">
+        <v>27801</v>
+      </c>
+      <c r="K17">
+        <v>25843</v>
+      </c>
+      <c r="L17">
+        <v>23219</v>
+      </c>
+      <c r="M17">
+        <v>25512</v>
+      </c>
+      <c r="N17">
+        <v>23915</v>
+      </c>
+      <c r="P17">
+        <v>15192</v>
+      </c>
+      <c r="Q17">
+        <v>15233</v>
+      </c>
+      <c r="R17">
+        <v>15136</v>
+      </c>
+      <c r="S17">
+        <v>14979</v>
+      </c>
+      <c r="T17">
+        <v>14970</v>
+      </c>
+      <c r="U17">
+        <v>15647</v>
+      </c>
+      <c r="V17">
+        <v>14738</v>
+      </c>
+      <c r="W17">
+        <v>18100</v>
+      </c>
+      <c r="X17">
+        <v>17020</v>
+      </c>
+      <c r="Y17">
+        <v>18343</v>
+      </c>
+      <c r="Z17">
+        <v>15038</v>
+      </c>
+      <c r="AA17">
+        <v>15414</v>
+      </c>
+      <c r="AC17">
+        <v>11156</v>
+      </c>
+      <c r="AD17">
+        <v>11170</v>
+      </c>
+      <c r="AE17">
+        <v>11139</v>
+      </c>
+      <c r="AF17">
+        <v>11170</v>
+      </c>
+      <c r="AG17">
+        <v>12877</v>
+      </c>
+      <c r="AH17">
+        <v>11709</v>
+      </c>
+      <c r="AI17">
+        <v>10902</v>
+      </c>
+      <c r="AJ17">
+        <v>10936</v>
+      </c>
+      <c r="AK17">
+        <v>11639</v>
+      </c>
+      <c r="AL17">
+        <v>11468</v>
+      </c>
+      <c r="AM17">
+        <v>11441</v>
+      </c>
+      <c r="AN17">
+        <v>11532</v>
+      </c>
+      <c r="AP17">
+        <v>36606</v>
+      </c>
+      <c r="AQ17">
+        <v>36975</v>
+      </c>
+      <c r="AR17">
+        <v>37748</v>
+      </c>
+      <c r="AS17">
+        <v>36189</v>
+      </c>
+      <c r="AT17">
+        <v>37062</v>
+      </c>
+      <c r="AU17">
+        <v>37446</v>
+      </c>
+      <c r="AV17">
+        <v>36212</v>
+      </c>
+      <c r="AW17">
+        <v>36240</v>
+      </c>
+      <c r="AX17">
+        <v>35738</v>
+      </c>
+      <c r="AY17">
+        <v>40779</v>
+      </c>
+      <c r="AZ17">
+        <v>37624</v>
+      </c>
+      <c r="BA17">
+        <v>39161</v>
+      </c>
+      <c r="BC17">
+        <v>23080</v>
+      </c>
+      <c r="BD17">
+        <v>24846</v>
+      </c>
+      <c r="BE17">
+        <v>24652</v>
+      </c>
+      <c r="BF17">
+        <v>23445</v>
+      </c>
+      <c r="BG17">
+        <v>25015</v>
+      </c>
+      <c r="BH17">
+        <v>23822</v>
+      </c>
+      <c r="BI17">
+        <v>22812</v>
+      </c>
+      <c r="BJ17">
+        <v>23132</v>
+      </c>
+      <c r="BK17">
+        <v>24100</v>
+      </c>
+      <c r="BL17">
+        <v>24599</v>
+      </c>
+      <c r="BM17">
+        <v>23364</v>
+      </c>
+      <c r="BN17">
+        <v>23114</v>
+      </c>
+      <c r="BP17">
+        <v>17512</v>
+      </c>
+      <c r="BQ17">
+        <v>18035</v>
+      </c>
+      <c r="BR17">
+        <v>18150</v>
+      </c>
+      <c r="BS17">
+        <v>16750</v>
+      </c>
+      <c r="BT17">
+        <v>17111</v>
+      </c>
+      <c r="BU17">
+        <v>16881</v>
+      </c>
+      <c r="BV17">
+        <v>16978</v>
+      </c>
+      <c r="BW17">
+        <v>16714</v>
+      </c>
+      <c r="BX17">
+        <v>18240</v>
+      </c>
+      <c r="BY17">
+        <v>17789</v>
+      </c>
+      <c r="BZ17">
+        <v>16780</v>
+      </c>
+      <c r="CA17">
+        <v>16931</v>
+      </c>
+      <c r="CC17">
+        <v>20300</v>
+      </c>
+      <c r="CD17">
+        <v>19607</v>
+      </c>
+      <c r="CE17">
+        <v>20265</v>
+      </c>
+      <c r="CF17">
+        <v>19333</v>
+      </c>
+      <c r="CG17">
+        <v>19676</v>
+      </c>
+      <c r="CH17">
+        <v>19141</v>
+      </c>
+      <c r="CI17">
+        <v>19515</v>
+      </c>
+      <c r="CJ17">
+        <v>19573</v>
+      </c>
+      <c r="CK17">
+        <v>19344</v>
+      </c>
+      <c r="CL17">
+        <v>19689</v>
+      </c>
+      <c r="CM17">
+        <v>19931</v>
+      </c>
+      <c r="CN17">
+        <v>19296</v>
+      </c>
+      <c r="CP17">
+        <v>10776</v>
+      </c>
+      <c r="CQ17">
+        <v>10800</v>
+      </c>
+      <c r="CR17">
+        <v>10895</v>
+      </c>
+      <c r="CS17">
+        <v>10708</v>
+      </c>
+      <c r="CT17">
+        <v>10769</v>
+      </c>
+      <c r="CU17">
+        <v>10809</v>
+      </c>
+      <c r="CV17">
+        <v>10769</v>
+      </c>
+      <c r="CW17">
+        <v>10598</v>
+      </c>
+      <c r="CX17">
+        <v>10698</v>
+      </c>
+      <c r="CY17">
+        <v>10658</v>
+      </c>
+      <c r="CZ17">
+        <v>10962</v>
+      </c>
+      <c r="DB17">
+        <v>7559</v>
+      </c>
+      <c r="DC17">
+        <v>7672</v>
+      </c>
+      <c r="DD17">
+        <v>7740</v>
+      </c>
+      <c r="DO17">
+        <v>32051</v>
+      </c>
+      <c r="DP17">
+        <v>31369</v>
+      </c>
+      <c r="DQ17">
+        <v>31848</v>
+      </c>
+      <c r="DR17">
+        <v>32369</v>
+      </c>
+      <c r="DS17">
+        <v>32228</v>
+      </c>
+      <c r="DT17">
+        <v>31592</v>
+      </c>
+      <c r="DU17">
+        <v>32197</v>
+      </c>
+      <c r="DV17">
+        <v>31887</v>
+      </c>
+      <c r="DW17">
+        <v>32003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assessment 2 v1/Results Waypoint 1.xlsx
+++ b/Assessment 2 v1/Results Waypoint 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{09E40718-218E-46AC-A58C-1D6A900CEA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0665AA3A-ABAC-44F1-92EF-9378BE4A7E6B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{09E40718-218E-46AC-A58C-1D6A900CEA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F3225F9-4362-4363-8303-346CB2A83CC2}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="149">
   <si>
     <t>Waypoint</t>
   </si>
@@ -415,6 +415,75 @@
   </si>
   <si>
     <t>0.07,0.01</t>
+  </si>
+  <si>
+    <t>0.22,0.08</t>
+  </si>
+  <si>
+    <t>0.33,-0.13</t>
+  </si>
+  <si>
+    <t>0.36,-0.14</t>
+  </si>
+  <si>
+    <t>0.11,-0.08</t>
+  </si>
+  <si>
+    <t>0.19,-0.01</t>
+  </si>
+  <si>
+    <t>0.22,0.07</t>
+  </si>
+  <si>
+    <t>0.30,0.09</t>
+  </si>
+  <si>
+    <t>0.19,-0.02</t>
+  </si>
+  <si>
+    <t>0.22,0.06</t>
+  </si>
+  <si>
+    <t>0.33,-0.08</t>
+  </si>
+  <si>
+    <t>0.41,-0.06</t>
+  </si>
+  <si>
+    <t>0.30,0.10</t>
+  </si>
+  <si>
+    <t>0.10,0.10</t>
+  </si>
+  <si>
+    <t>0.13,0.00</t>
+  </si>
+  <si>
+    <t>0.10,-0.09</t>
+  </si>
+  <si>
+    <t>0.22,0.05</t>
+  </si>
+  <si>
+    <t>0.31,0.08</t>
+  </si>
+  <si>
+    <t>0.32,-0.09</t>
+  </si>
+  <si>
+    <t>0.40,-0.08</t>
+  </si>
+  <si>
+    <t>0.41,-0.08</t>
+  </si>
+  <si>
+    <t>0.30,0.08</t>
+  </si>
+  <si>
+    <t>0.40,-0.07</t>
+  </si>
+  <si>
+    <t>0.09,0.09</t>
   </si>
 </sst>
 </file>
@@ -778,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5BCB56-9515-413D-9030-3E612E14AC95}">
   <dimension ref="A1:EO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DJ1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="DW17" sqref="DW17"/>
+    <sheetView tabSelected="1" topLeftCell="ED1" workbookViewId="0">
+      <selection activeCell="EM17" sqref="EM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1176,6 +1245,51 @@
       <c r="DW2" t="s">
         <v>66</v>
       </c>
+      <c r="DX2" t="s">
+        <v>30</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>66</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -1505,6 +1619,51 @@
       <c r="DW3" t="s">
         <v>16</v>
       </c>
+      <c r="DX3" t="s">
+        <v>65</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>125</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>125</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>125</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>125</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>125</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>125</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>148</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -1834,6 +1993,51 @@
       <c r="DW4" t="s">
         <v>125</v>
       </c>
+      <c r="DX4" t="s">
+        <v>54</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>94</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>125</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>125</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>125</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>125</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>139</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>125</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>125</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -2163,6 +2367,51 @@
       <c r="DW5" t="s">
         <v>94</v>
       </c>
+      <c r="DX5" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>94</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>129</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>94</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>94</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>129</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>70</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>94</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>134</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>94</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>94</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -2492,6 +2741,51 @@
       <c r="DW6" t="s">
         <v>70</v>
       </c>
+      <c r="DX6" t="s">
+        <v>56</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>89</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>89</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>129</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>62</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>62</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>62</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>89</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>133</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>146</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>129</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -2821,6 +3115,51 @@
       <c r="DW7" t="s">
         <v>55</v>
       </c>
+      <c r="DX7" t="s">
+        <v>68</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>131</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>133</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>134</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>134</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>62</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>85</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>85</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>137</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>62</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>141</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>143</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>130</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>134</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -3150,6 +3489,51 @@
       <c r="DW8" t="s">
         <v>62</v>
       </c>
+      <c r="DX8" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>132</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>134</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>137</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>85</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>88</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>34</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>34</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>142</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>147</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>134</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>132</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -3479,6 +3863,51 @@
       <c r="DW9" t="s">
         <v>85</v>
       </c>
+      <c r="DX9" t="s">
+        <v>128</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>118</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>132</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>118</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>118</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>86</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>119</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>86</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>118</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>143</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>22</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>137</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>118</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -3808,6 +4237,51 @@
       <c r="DW10" t="s">
         <v>88</v>
       </c>
+      <c r="DX10" t="s">
+        <v>28</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>86</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>135</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>119</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>119</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>119</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>119</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>144</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>135</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>121</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:145" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -4137,6 +4611,51 @@
       <c r="DW11" t="s">
         <v>86</v>
       </c>
+      <c r="DX11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>119</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>22</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>145</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>119</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>147</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:145" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
@@ -4460,6 +4979,51 @@
       <c r="DW12" t="s">
         <v>22</v>
       </c>
+      <c r="DX12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>136</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>22</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EM12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:145" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
@@ -4783,6 +5347,51 @@
       <c r="DW13" t="s">
         <v>22</v>
       </c>
+      <c r="DX13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>22</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:145" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
@@ -5106,6 +5715,51 @@
       <c r="DW14" t="s">
         <v>22</v>
       </c>
+      <c r="DX14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>22</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EM14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:145" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
@@ -5429,6 +6083,51 @@
       <c r="DW15" t="s">
         <v>22</v>
       </c>
+      <c r="DX15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>22</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:145" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
@@ -5752,8 +6451,53 @@
       <c r="DW16" t="s">
         <v>22</v>
       </c>
+      <c r="DX16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>22</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" spans="3:127" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:143" x14ac:dyDescent="0.4">
       <c r="C17">
         <v>27802</v>
       </c>
@@ -6074,6 +6818,51 @@
       </c>
       <c r="DW17">
         <v>32003</v>
+      </c>
+      <c r="DX17">
+        <v>31089</v>
+      </c>
+      <c r="DY17">
+        <v>32256</v>
+      </c>
+      <c r="DZ17">
+        <v>3125</v>
+      </c>
+      <c r="EB17">
+        <v>20982</v>
+      </c>
+      <c r="EC17">
+        <v>21045</v>
+      </c>
+      <c r="ED17">
+        <v>20967</v>
+      </c>
+      <c r="EE17">
+        <v>20579</v>
+      </c>
+      <c r="EF17">
+        <v>20435</v>
+      </c>
+      <c r="EG17">
+        <v>20855</v>
+      </c>
+      <c r="EH17">
+        <v>20758</v>
+      </c>
+      <c r="EI17">
+        <v>20818</v>
+      </c>
+      <c r="EJ17">
+        <v>20979</v>
+      </c>
+      <c r="EK17">
+        <v>21023</v>
+      </c>
+      <c r="EL17">
+        <v>20554</v>
+      </c>
+      <c r="EM17">
+        <v>20849</v>
       </c>
     </row>
   </sheetData>

--- a/Assessment 2 v1/Results Waypoint 1.xlsx
+++ b/Assessment 2 v1/Results Waypoint 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lo19528_bristol_ac_uk/Documents/Documents/Year_5/Robotics/Robotics-Systems-A2/Assessment 2 v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{09E40718-218E-46AC-A58C-1D6A900CEA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F3225F9-4362-4363-8303-346CB2A83CC2}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{7C8E6764-BAA2-4701-82AB-F97D09BB8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F51F70C0-ED12-4D31-8C11-2FB388EB75D1}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
+    <workbookView xWindow="6429" yWindow="214" windowWidth="19285" windowHeight="12026" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="156">
   <si>
     <t>Waypoint</t>
   </si>
@@ -484,6 +484,27 @@
   </si>
   <si>
     <t>0.09,0.09</t>
+  </si>
+  <si>
+    <t>0.24,-0.11</t>
+  </si>
+  <si>
+    <t>0.30,-0.08</t>
+  </si>
+  <si>
+    <t>0.39,-0.08</t>
+  </si>
+  <si>
+    <t>0.30,0.11</t>
+  </si>
+  <si>
+    <t>0.21,0.06</t>
+  </si>
+  <si>
+    <t>0.29,0.09</t>
+  </si>
+  <si>
+    <t>0.39,-0.06</t>
   </si>
 </sst>
 </file>
@@ -845,15 +866,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5BCB56-9515-413D-9030-3E612E14AC95}">
-  <dimension ref="A1:EO17"/>
+  <dimension ref="A1:EZ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ED1" workbookViewId="0">
-      <selection activeCell="EM17" sqref="EM17"/>
+    <sheetView tabSelected="1" topLeftCell="EJ1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="EV17" sqref="EV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -917,7 +938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -1218,6 +1239,33 @@
       <c r="DD2" t="s">
         <v>114</v>
       </c>
+      <c r="DE2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>16</v>
+      </c>
       <c r="DO2" t="s">
         <v>16</v>
       </c>
@@ -1290,8 +1338,44 @@
       <c r="EM2" t="s">
         <v>66</v>
       </c>
+      <c r="EO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>30</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>30</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>40</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>16</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>8.7499999999999994E-2</v>
       </c>
@@ -1592,6 +1676,33 @@
       <c r="DD3" t="s">
         <v>40</v>
       </c>
+      <c r="DE3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>61</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>61</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>61</v>
+      </c>
       <c r="DO3" t="s">
         <v>102</v>
       </c>
@@ -1664,8 +1775,44 @@
       <c r="EM3" t="s">
         <v>16</v>
       </c>
+      <c r="EO3" t="s">
+        <v>125</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>125</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>65</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>64</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>125</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>64</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="4" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.106</v>
       </c>
@@ -1966,6 +2113,33 @@
       <c r="DD4" t="s">
         <v>31</v>
       </c>
+      <c r="DE4" t="s">
+        <v>149</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>60</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>60</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>60</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>60</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>60</v>
+      </c>
       <c r="DO4" t="s">
         <v>94</v>
       </c>
@@ -2038,8 +2212,44 @@
       <c r="EM4" t="s">
         <v>125</v>
       </c>
+      <c r="EO4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>94</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>54</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>94</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>139</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>65</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>94</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.125</v>
       </c>
@@ -2340,6 +2550,33 @@
       <c r="DD5" t="s">
         <v>118</v>
       </c>
+      <c r="DE5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>150</v>
+      </c>
       <c r="DO5" t="s">
         <v>70</v>
       </c>
@@ -2412,8 +2649,44 @@
       <c r="EM5" t="s">
         <v>94</v>
       </c>
+      <c r="EO5" t="s">
+        <v>129</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>70</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>91</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>70</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>153</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>62</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>70</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>70</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>129</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>70</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="6" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.17249999999999999</v>
       </c>
@@ -2714,6 +2987,33 @@
       <c r="DD6" t="s">
         <v>123</v>
       </c>
+      <c r="DE6" t="s">
+        <v>119</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>121</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>121</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>20</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>151</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>147</v>
+      </c>
       <c r="DO6" t="s">
         <v>62</v>
       </c>
@@ -2786,8 +3086,44 @@
       <c r="EM6" t="s">
         <v>130</v>
       </c>
+      <c r="EO6" t="s">
+        <v>62</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>62</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>152</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>62</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>154</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>137</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>67</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>62</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>62</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>62</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="7" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.20250000000000001</v>
       </c>
@@ -3088,6 +3424,33 @@
       <c r="DD7" t="s">
         <v>22</v>
       </c>
+      <c r="DE7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>22</v>
+      </c>
       <c r="DO7" t="s">
         <v>85</v>
       </c>
@@ -3160,8 +3523,44 @@
       <c r="EM7" t="s">
         <v>134</v>
       </c>
+      <c r="EO7" t="s">
+        <v>85</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>56</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>85</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>85</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>120</v>
+      </c>
+      <c r="EU7" t="s">
+        <v>19</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>56</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>137</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>85</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>85</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="8" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.23100000000000001</v>
       </c>
@@ -3462,6 +3861,33 @@
       <c r="DD8" t="s">
         <v>22</v>
       </c>
+      <c r="DE8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>22</v>
+      </c>
       <c r="DO8" t="s">
         <v>88</v>
       </c>
@@ -3534,8 +3960,44 @@
       <c r="EM8" t="s">
         <v>132</v>
       </c>
+      <c r="EO8" t="s">
+        <v>34</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>88</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>57</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>88</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>121</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>155</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>68</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>34</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>34</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>88</v>
+      </c>
+      <c r="EZ8" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.28399999999999997</v>
       </c>
@@ -3836,6 +4298,33 @@
       <c r="DD9" t="s">
         <v>22</v>
       </c>
+      <c r="DE9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>22</v>
+      </c>
       <c r="DO9" t="s">
         <v>21</v>
       </c>
@@ -3908,8 +4397,44 @@
       <c r="EM9" t="s">
         <v>135</v>
       </c>
+      <c r="EO9" t="s">
+        <v>86</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>21</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>86</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>21</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>119</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>74</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>119</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>86</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>21</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="10" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.315</v>
       </c>
@@ -4210,6 +4735,33 @@
       <c r="DD10" t="s">
         <v>22</v>
       </c>
+      <c r="DE10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>22</v>
+      </c>
       <c r="DO10" t="s">
         <v>22</v>
       </c>
@@ -4282,8 +4834,44 @@
       <c r="EM10" t="s">
         <v>147</v>
       </c>
+      <c r="EO10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES10" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>22</v>
+      </c>
+      <c r="EZ10" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="11" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.38700000000000001</v>
       </c>
@@ -4584,6 +5172,33 @@
       <c r="DD11" t="s">
         <v>22</v>
       </c>
+      <c r="DE11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>22</v>
+      </c>
       <c r="DO11" t="s">
         <v>22</v>
       </c>
@@ -4656,8 +5271,44 @@
       <c r="EM11" t="s">
         <v>22</v>
       </c>
+      <c r="EO11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES11" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EX11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EZ11" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:156" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -4952,6 +5603,33 @@
       <c r="DD12" t="s">
         <v>22</v>
       </c>
+      <c r="DE12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>22</v>
+      </c>
       <c r="DO12" t="s">
         <v>22</v>
       </c>
@@ -5024,8 +5702,44 @@
       <c r="EM12" t="s">
         <v>22</v>
       </c>
+      <c r="EO12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ12" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES12" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EX12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY12" t="s">
+        <v>22</v>
+      </c>
+      <c r="EZ12" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="13" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:156" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -5320,6 +6034,33 @@
       <c r="DD13" t="s">
         <v>22</v>
       </c>
+      <c r="DE13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>22</v>
+      </c>
       <c r="DO13" t="s">
         <v>22</v>
       </c>
@@ -5392,8 +6133,44 @@
       <c r="EM13" t="s">
         <v>22</v>
       </c>
+      <c r="EO13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY13" t="s">
+        <v>22</v>
+      </c>
+      <c r="EZ13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="14" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:156" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>22</v>
       </c>
@@ -5688,6 +6465,33 @@
       <c r="DD14" t="s">
         <v>22</v>
       </c>
+      <c r="DE14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>22</v>
+      </c>
       <c r="DO14" t="s">
         <v>22</v>
       </c>
@@ -5760,8 +6564,44 @@
       <c r="EM14" t="s">
         <v>22</v>
       </c>
+      <c r="EO14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EX14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY14" t="s">
+        <v>22</v>
+      </c>
+      <c r="EZ14" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:156" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -6056,6 +6896,33 @@
       <c r="DD15" t="s">
         <v>22</v>
       </c>
+      <c r="DE15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>22</v>
+      </c>
       <c r="DO15" t="s">
         <v>22</v>
       </c>
@@ -6128,8 +6995,44 @@
       <c r="EM15" t="s">
         <v>22</v>
       </c>
+      <c r="EO15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY15" t="s">
+        <v>22</v>
+      </c>
+      <c r="EZ15" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="16" spans="1:145" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:156" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -6424,6 +7327,33 @@
       <c r="DD16" t="s">
         <v>22</v>
       </c>
+      <c r="DE16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DJ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>22</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>22</v>
+      </c>
       <c r="DO16" t="s">
         <v>22</v>
       </c>
@@ -6496,8 +7426,44 @@
       <c r="EM16" t="s">
         <v>22</v>
       </c>
+      <c r="EO16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES16" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EX16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY16" t="s">
+        <v>22</v>
+      </c>
+      <c r="EZ16" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" spans="3:143" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:156" x14ac:dyDescent="0.4">
       <c r="C17">
         <v>27802</v>
       </c>
@@ -6792,6 +7758,33 @@
       <c r="DD17">
         <v>7740</v>
       </c>
+      <c r="DE17">
+        <v>7547</v>
+      </c>
+      <c r="DF17">
+        <v>7620</v>
+      </c>
+      <c r="DG17">
+        <v>7649</v>
+      </c>
+      <c r="DH17">
+        <v>7689</v>
+      </c>
+      <c r="DI17">
+        <v>7814</v>
+      </c>
+      <c r="DJ17">
+        <v>7716</v>
+      </c>
+      <c r="DK17">
+        <v>7793</v>
+      </c>
+      <c r="DL17">
+        <v>7870</v>
+      </c>
+      <c r="DM17">
+        <v>7809</v>
+      </c>
       <c r="DO17">
         <v>32051</v>
       </c>
@@ -6863,6 +7856,42 @@
       </c>
       <c r="EM17">
         <v>20849</v>
+      </c>
+      <c r="EO17">
+        <v>15098</v>
+      </c>
+      <c r="EP17">
+        <v>14925</v>
+      </c>
+      <c r="EQ17">
+        <v>14979</v>
+      </c>
+      <c r="ER17">
+        <v>14940</v>
+      </c>
+      <c r="ES17">
+        <v>15183</v>
+      </c>
+      <c r="ET17">
+        <v>14877</v>
+      </c>
+      <c r="EU17">
+        <v>14876</v>
+      </c>
+      <c r="EV17">
+        <v>14993</v>
+      </c>
+      <c r="EW17">
+        <v>15159</v>
+      </c>
+      <c r="EX17">
+        <v>14896</v>
+      </c>
+      <c r="EY17">
+        <v>15154</v>
+      </c>
+      <c r="EZ17">
+        <v>15090</v>
       </c>
     </row>
   </sheetData>
@@ -6951,4 +7980,318 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3ec754e8-995d-4af1-99dd-6cc8c4c32857" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067A934DEFDA992458519BC5C6E17FE2E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b02ed8e3ec37441668c957cce1c0cfcc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e7c8d5ba-9894-44e1-b38a-12fa82f91559" xmlns:ns4="3ec754e8-995d-4af1-99dd-6cc8c4c32857" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2625717e2057a8be9c1bea33769556d" ns3:_="" ns4:_="">
+    <xsd:import namespace="e7c8d5ba-9894-44e1-b38a-12fa82f91559"/>
+    <xsd:import namespace="3ec754e8-995d-4af1-99dd-6cc8c4c32857"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e7c8d5ba-9894-44e1-b38a-12fa82f91559" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3ec754e8-995d-4af1-99dd-6cc8c4c32857" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="24" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31CCAB39-9BD3-4E80-AF17-FA5DDCF145A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e7c8d5ba-9894-44e1-b38a-12fa82f91559"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3ec754e8-995d-4af1-99dd-6cc8c4c32857"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22CA9292-7CFB-4440-9F93-1443CD4B3DE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D15F862B-59A5-4B80-9B04-E3A560938C23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e7c8d5ba-9894-44e1-b38a-12fa82f91559"/>
+    <ds:schemaRef ds:uri="3ec754e8-995d-4af1-99dd-6cc8c4c32857"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Assessment 2 v1/Results Waypoint 1.xlsx
+++ b/Assessment 2 v1/Results Waypoint 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{7C8E6764-BAA2-4701-82AB-F97D09BB8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F51F70C0-ED12-4D31-8C11-2FB388EB75D1}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{7C8E6764-BAA2-4701-82AB-F97D09BB8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56DA805-6A2B-4B8C-AC00-CB1333E7BD9A}"/>
   <bookViews>
-    <workbookView xWindow="6429" yWindow="214" windowWidth="19285" windowHeight="12026" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Waypoints" sheetId="1" r:id="rId1"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5BCB56-9515-413D-9030-3E612E14AC95}">
   <dimension ref="A1:EZ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EJ1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="EV17" sqref="EV17"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="CM21" sqref="CM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Assessment 2 v1/Results Waypoint 1.xlsx
+++ b/Assessment 2 v1/Results Waypoint 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/kk19332_bristol_ac_uk/Documents/Documents/Eng Des/Year 5/Robotics-Systems-A2/Assessment 2 v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{7C8E6764-BAA2-4701-82AB-F97D09BB8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56DA805-6A2B-4B8C-AC00-CB1333E7BD9A}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{7C8E6764-BAA2-4701-82AB-F97D09BB8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7BE539-9F91-479D-9F5E-3DF5E3445339}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{506BA83C-A7B3-43C5-AD2D-E0CAB2B7B6B9}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <dimension ref="A1:EZ17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BZ1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="CM21" sqref="CM21"/>
+      <selection activeCell="CM13" sqref="CM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2503,7 +2503,7 @@
         <v>116</v>
       </c>
       <c r="CM5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="CN5" t="s">
         <v>116</v>
@@ -2931,19 +2931,19 @@
         <v>22</v>
       </c>
       <c r="CJ6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="CK6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="CL6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="CM6" t="s">
         <v>22</v>
       </c>
       <c r="CN6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="CP6" t="s">
         <v>28</v>
